--- a/build/bin/database.xlsx
+++ b/build/bin/database.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="247">
   <si>
     <t>ID</t>
   </si>
@@ -238,6 +238,9 @@
     <t>клеймо  ИЖ</t>
   </si>
   <si>
+    <t>1+7</t>
+  </si>
+  <si>
     <t>номер</t>
   </si>
   <si>
@@ -752,15 +755,6 @@
   </si>
   <si>
     <t>7+1+6+7</t>
-  </si>
-  <si>
-    <t>сегмент плиты_1</t>
-  </si>
-  <si>
-    <t>ИЖ 136 адаптер</t>
-  </si>
-  <si>
-    <t>6+5+2+4+5</t>
   </si>
 </sst>
 </file>
@@ -1694,10 +1688,10 @@
         <v>73</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46">
@@ -1705,7 +1699,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -1719,7 +1713,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -1733,7 +1727,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -1747,13 +1741,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C49">
         <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50">
@@ -1761,7 +1755,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -1775,7 +1769,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -1789,7 +1783,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -1803,7 +1797,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -1817,7 +1811,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -1831,13 +1825,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C55">
         <v>17</v>
       </c>
       <c r="D55" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56">
@@ -1845,7 +1839,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -1859,13 +1853,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C57">
         <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58">
@@ -1873,7 +1867,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -1887,7 +1881,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -1901,13 +1895,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C60">
         <v>12</v>
       </c>
       <c r="D60" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61">
@@ -1915,13 +1909,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C61">
         <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62">
@@ -1929,7 +1923,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -1943,13 +1937,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C63">
         <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64">
@@ -1957,7 +1951,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -1971,13 +1965,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C65">
         <v>23</v>
       </c>
       <c r="D65" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66">
@@ -1985,13 +1979,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C66">
         <v>11</v>
       </c>
       <c r="D66" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67">
@@ -1999,13 +1993,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C67">
         <v>11</v>
       </c>
       <c r="D67" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68">
@@ -2013,7 +2007,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -2027,7 +2021,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -2041,7 +2035,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -2055,7 +2049,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -2069,7 +2063,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -2083,7 +2077,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -2097,7 +2091,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -2111,13 +2105,13 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C75">
         <v>39</v>
       </c>
       <c r="D75" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76">
@@ -2125,7 +2119,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -2139,13 +2133,13 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C77">
         <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="78">
@@ -2153,7 +2147,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C78">
         <v>7</v>
@@ -2167,13 +2161,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C79">
         <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="80">
@@ -2181,13 +2175,13 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C80">
         <v>6</v>
       </c>
       <c r="D80" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="81">
@@ -2195,7 +2189,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -2209,13 +2203,13 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C82">
         <v>8</v>
       </c>
       <c r="D82" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="83">
@@ -2223,13 +2217,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C83">
         <v>8</v>
       </c>
       <c r="D83" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="84">
@@ -2237,7 +2231,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -2251,7 +2245,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C85">
         <v>7</v>
@@ -2265,13 +2259,13 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C86">
         <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="87">
@@ -2279,13 +2273,13 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C87">
         <v>4</v>
       </c>
       <c r="D87" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="88">
@@ -2293,7 +2287,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -2307,7 +2301,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -2321,7 +2315,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C90">
         <v>2</v>
@@ -2335,13 +2329,13 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C91">
         <v>4</v>
       </c>
       <c r="D91" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92">
@@ -2349,13 +2343,13 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C92">
         <v>4</v>
       </c>
       <c r="D92" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="93">
@@ -2363,13 +2357,13 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C93">
         <v>6</v>
       </c>
       <c r="D93" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="94">
@@ -2377,7 +2371,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -2391,13 +2385,13 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C95">
         <v>3</v>
       </c>
       <c r="D95" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="96">
@@ -2405,13 +2399,13 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C96">
         <v>6</v>
       </c>
       <c r="D96" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="97">
@@ -2419,13 +2413,13 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C97">
         <v>6</v>
       </c>
       <c r="D97" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="98">
@@ -2433,13 +2427,13 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C98">
         <v>16</v>
       </c>
       <c r="D98" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="99">
@@ -2447,13 +2441,13 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C99">
         <v>16</v>
       </c>
       <c r="D99" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="100">
@@ -2461,7 +2455,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C100">
         <v>4</v>
@@ -2475,13 +2469,13 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C101">
         <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="102">
@@ -2489,7 +2483,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C102">
         <v>3</v>
@@ -2503,13 +2497,13 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C103">
         <v>7</v>
       </c>
       <c r="D103" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104">
@@ -2517,7 +2511,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C104">
         <v>2</v>
@@ -2531,13 +2525,13 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C105">
         <v>6</v>
       </c>
       <c r="D105" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="106">
@@ -2545,13 +2539,13 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C106">
         <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="107">
@@ -2559,13 +2553,13 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C107">
         <v>4</v>
       </c>
       <c r="D107" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="108">
@@ -2573,7 +2567,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C108">
         <v>2</v>
@@ -2587,7 +2581,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C109">
         <v>2</v>
@@ -2601,13 +2595,13 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C110">
         <v>3</v>
       </c>
       <c r="D110" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="111">
@@ -2615,7 +2609,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -2629,13 +2623,13 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C112">
         <v>33</v>
       </c>
       <c r="D112" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="113">
@@ -2643,13 +2637,13 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C113">
         <v>34</v>
       </c>
       <c r="D113" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="114">
@@ -2657,13 +2651,13 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C114">
         <v>8</v>
       </c>
       <c r="D114" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="115">
@@ -2671,7 +2665,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C115">
         <v>3</v>
@@ -2685,13 +2679,13 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C116">
         <v>14</v>
       </c>
       <c r="D116" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="117">
@@ -2699,13 +2693,13 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C117">
         <v>14</v>
       </c>
       <c r="D117" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="118">
@@ -2713,7 +2707,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C118">
         <v>3</v>
@@ -2727,13 +2721,13 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C119">
         <v>38</v>
       </c>
       <c r="D119" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="120">
@@ -2741,13 +2735,13 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C120">
         <v>11</v>
       </c>
       <c r="D120" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="121">
@@ -2755,7 +2749,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -2769,7 +2763,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -2783,7 +2777,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C123">
         <v>3</v>
@@ -2797,7 +2791,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -2811,7 +2805,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C125">
         <v>4</v>
@@ -2825,13 +2819,13 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C126">
         <v>49</v>
       </c>
       <c r="D126" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="127">
@@ -2839,13 +2833,13 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C127">
         <v>8</v>
       </c>
       <c r="D127" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="128">
@@ -2853,7 +2847,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C128">
         <v>3</v>
@@ -2867,13 +2861,13 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C129">
         <v>7</v>
       </c>
       <c r="D129" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="130">
@@ -2881,7 +2875,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C130">
         <v>5</v>
@@ -2895,7 +2889,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C131">
         <v>3</v>
@@ -2909,7 +2903,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C132">
         <v>2</v>
@@ -2923,7 +2917,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C133">
         <v>5</v>
@@ -2937,7 +2931,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C134">
         <v>2</v>
@@ -2951,13 +2945,13 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C135">
         <v>16</v>
       </c>
       <c r="D135" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="136">
@@ -2965,13 +2959,13 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C136">
         <v>6</v>
       </c>
       <c r="D136" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="137">
@@ -2979,7 +2973,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C137">
         <v>5</v>
@@ -2993,13 +2987,13 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C138">
         <v>6</v>
       </c>
       <c r="D138" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="139">
@@ -3007,13 +3001,13 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C139">
         <v>39</v>
       </c>
       <c r="D139" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="140">
@@ -3021,13 +3015,13 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C140">
         <v>28</v>
       </c>
       <c r="D140" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="141">
@@ -3035,13 +3029,13 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C141">
         <v>8</v>
       </c>
       <c r="D141" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="142">
@@ -3049,13 +3043,13 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C142">
         <v>20</v>
       </c>
       <c r="D142" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="143">
@@ -3063,13 +3057,13 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C143">
         <v>24</v>
       </c>
       <c r="D143" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="144">
@@ -3077,13 +3071,13 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C144">
         <v>4</v>
       </c>
       <c r="D144" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="145">
@@ -3091,13 +3085,13 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C145">
         <v>3</v>
       </c>
       <c r="D145" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="146">
@@ -3105,7 +3099,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C146">
         <v>2</v>
@@ -3119,7 +3113,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -3133,7 +3127,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -3147,7 +3141,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -3161,13 +3155,13 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C150">
         <v>21</v>
       </c>
       <c r="D150" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="151">
@@ -3175,7 +3169,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C151">
         <v>5</v>
@@ -3189,13 +3183,13 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C152">
         <v>18</v>
       </c>
       <c r="D152" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="153">
@@ -3203,7 +3197,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C153">
         <v>2</v>
@@ -3217,7 +3211,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C154">
         <v>2</v>
@@ -3231,7 +3225,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -3245,7 +3239,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C156">
         <v>5</v>
@@ -3259,7 +3253,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -3273,13 +3267,13 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C158">
         <v>6</v>
       </c>
       <c r="D158" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="159">
@@ -3287,7 +3281,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C159">
         <v>2</v>
@@ -3301,7 +3295,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -3315,7 +3309,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C161">
         <v>3</v>
@@ -3329,13 +3323,13 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C162">
         <v>3</v>
       </c>
       <c r="D162" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="163">
@@ -3343,13 +3337,13 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C163">
         <v>8</v>
       </c>
       <c r="D163" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="164">
@@ -3357,13 +3351,13 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C164">
         <v>15</v>
       </c>
       <c r="D164" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="165">
@@ -3371,7 +3365,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -3385,7 +3379,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -3399,7 +3393,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C167">
         <v>1</v>
@@ -3413,13 +3407,13 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C168">
         <v>4</v>
       </c>
       <c r="D168" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="169">
@@ -3427,13 +3421,13 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C169">
         <v>12</v>
       </c>
       <c r="D169" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="170">
@@ -3441,13 +3435,13 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C170">
         <v>21</v>
       </c>
       <c r="D170" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="171">
@@ -3455,7 +3449,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C171">
         <v>3</v>
@@ -3469,7 +3463,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C172">
         <v>3</v>
@@ -3483,41 +3477,13 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C173">
         <v>21</v>
       </c>
       <c r="D173" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174">
-        <v>173</v>
-      </c>
-      <c r="B174" t="s">
         <v>246</v>
-      </c>
-      <c r="C174">
-        <v>3</v>
-      </c>
-      <c r="D174" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175">
-        <v>176</v>
-      </c>
-      <c r="B175" t="s">
-        <v>247</v>
-      </c>
-      <c r="C175">
-        <v>22</v>
-      </c>
-      <c r="D175" t="s">
-        <v>248</v>
       </c>
     </row>
   </sheetData>
